--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447900.1391620333</v>
+        <v>445198.922510577</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>59.8012719186829</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.10641984616827</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>77.79707057279576</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.23818194581481</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.765018710763</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.0757096957167</v>
       </c>
       <c r="F5" t="n">
-        <v>285.9311315881751</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
@@ -947,7 +947,7 @@
         <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>97.84123035967166</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951733</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713891</v>
+        <v>4.360182258713863</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>132.3147704845789</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059547</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>106.7704271215197</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.08948445494894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>159.2508239713356</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>192.4834911188322</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>47.82814756577434</v>
       </c>
       <c r="T10" t="n">
-        <v>20.12230460726031</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>277.075729369433</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752109096</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278186</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>81.44845339175119</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.88058113793714</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520909</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>151.0429659719025</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.05052491174531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833897</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>159.1991174528861</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>63.69463930750803</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>132.812187316811</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>116.2873251119329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>139.9371893537528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>145.0635245304605</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503959</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>100.2041656279969</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.453391420150638</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.7894056603332</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7894056603332</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D2" t="n">
-        <v>367.7894056603332</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4117490931552</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="F2" t="n">
-        <v>94.46624834395173</v>
+        <v>300.438579740743</v>
       </c>
       <c r="G2" t="n">
-        <v>81.50243557050727</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>634.1670622275112</v>
+        <v>788.477863438847</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275112</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.9627644854196</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>453.9627644854196</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0283548241683</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304913</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="U3" t="n">
-        <v>678.083375646678</v>
+        <v>827.6363220413841</v>
       </c>
       <c r="V3" t="n">
-        <v>678.083375646678</v>
+        <v>592.4842138096415</v>
       </c>
       <c r="W3" t="n">
-        <v>678.083375646678</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="X3" t="n">
-        <v>470.2318754411451</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y3" t="n">
-        <v>470.2318754411451</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.1449104027203</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>352.1449104027203</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>202.0282709903845</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>202.0282709903845</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>202.0282709903845</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>33.45891034538798</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>33.45891034538798</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>33.45891034538798</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>533.79337523296</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>533.79337523296</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.79337523296</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1003.396833454128</v>
+        <v>824.6297868372119</v>
       </c>
       <c r="C5" t="n">
-        <v>1003.396833454128</v>
+        <v>824.6297868372119</v>
       </c>
       <c r="D5" t="n">
-        <v>645.1311348473776</v>
+        <v>466.3640882304614</v>
       </c>
       <c r="E5" t="n">
-        <v>645.1311348473776</v>
+        <v>363.2573107600405</v>
       </c>
       <c r="F5" t="n">
         <v>356.311810010837</v>
@@ -4559,58 +4559,58 @@
         <v>343.7673746797562</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275124</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245557</v>
+        <v>239.0325989245559</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825625</v>
+        <v>456.149911482563</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748849</v>
+        <v>729.4041931748856</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189409</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.99667351825</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.99667351825</v>
+        <v>1177.398442107326</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.99667351825</v>
+        <v>1177.398442107326</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.99667351825</v>
+        <v>1177.398442107326</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.99667351825</v>
+        <v>824.6297868372119</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.99667351825</v>
+        <v>824.6297868372119</v>
       </c>
       <c r="Y5" t="n">
-        <v>1389.99667351825</v>
+        <v>824.6297868372119</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589.5718155345546</v>
+        <v>499.8548915311998</v>
       </c>
       <c r="C6" t="n">
-        <v>415.1187862534276</v>
+        <v>325.4018622500728</v>
       </c>
       <c r="D6" t="n">
-        <v>266.1843765921764</v>
+        <v>325.4018622500728</v>
       </c>
       <c r="E6" t="n">
-        <v>266.1843765921764</v>
+        <v>166.1644072446173</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1843765921764</v>
+        <v>67.33488162878731</v>
       </c>
       <c r="G6" t="n">
-        <v>129.012076854863</v>
+        <v>67.33488162878731</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523444</v>
+        <v>67.33488162878731</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563409</v>
+        <v>49.44206107563417</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169444</v>
+        <v>159.6385680169445</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482962</v>
+        <v>354.1339118482964</v>
       </c>
       <c r="M6" t="n">
-        <v>733.9847623855724</v>
+        <v>600.4576725190421</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584461</v>
+        <v>980.3085230563186</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749979</v>
+        <v>1202.571970221837</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948667</v>
+        <v>1478.347425948668</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.34668675797</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.34668675797</v>
+        <v>1385.878273152067</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.442044309655</v>
+        <v>1189.973630703751</v>
       </c>
       <c r="U6" t="n">
-        <v>1334.442044309655</v>
+        <v>961.8525470243553</v>
       </c>
       <c r="V6" t="n">
-        <v>1099.289936077912</v>
+        <v>961.8525470243553</v>
       </c>
       <c r="W6" t="n">
-        <v>1099.289936077912</v>
+        <v>707.6151902961537</v>
       </c>
       <c r="X6" t="n">
-        <v>891.4384358723792</v>
+        <v>707.6151902961537</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.7871525546227</v>
+        <v>499.8548915311998</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>493.8793016674742</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="C7" t="n">
-        <v>493.8793016674742</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="D7" t="n">
-        <v>493.8793016674742</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="E7" t="n">
-        <v>345.9662080850811</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="F7" t="n">
-        <v>199.0762605871707</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="K7" t="n">
         <v>157.4322756223266</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830388</v>
       </c>
       <c r="M7" t="n">
-        <v>615.068857638815</v>
+        <v>615.0688576388152</v>
       </c>
       <c r="N7" t="n">
-        <v>854.728564797482</v>
+        <v>854.7285647974824</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1113.866490402741</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529572</v>
+        <v>910.3578444371304</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529572</v>
+        <v>910.3578444371304</v>
       </c>
       <c r="U7" t="n">
-        <v>1030.691890529572</v>
+        <v>621.217973613502</v>
       </c>
       <c r="V7" t="n">
-        <v>1030.691890529572</v>
+        <v>366.5334854076151</v>
       </c>
       <c r="W7" t="n">
-        <v>741.2747204926118</v>
+        <v>258.6845691232518</v>
       </c>
       <c r="X7" t="n">
-        <v>741.2747204926118</v>
+        <v>30.69501822523446</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.5277664977139</v>
+        <v>30.69501822523446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522.010132800342</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>1020.544708344026</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>634.756455745782</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>223.7705509561744</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>212.1062047208674</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>1912.149464776154</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>1522.010132800342</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300792</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476954</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.8067472977393</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>603.8705643698324</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1316.908405540587</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1316.908405540587</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>1062.2239173347</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>772.8067472977393</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>772.8067472977393</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.8067472977393</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1816.553216477142</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1447.590699536731</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1089.32500092998</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>1089.32500092998</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087832</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464064</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3672.904689377404</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.52680204827</v>
+        <v>3419.410747498933</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.52680204827</v>
+        <v>3088.347860155362</v>
       </c>
       <c r="W11" t="n">
-        <v>2966.758146778156</v>
+        <v>2735.579204885247</v>
       </c>
       <c r="X11" t="n">
-        <v>2593.292388517076</v>
+        <v>2362.113446624167</v>
       </c>
       <c r="Y11" t="n">
-        <v>2203.153056541264</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5115,22 +5115,22 @@
         <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626168</v>
+        <v>676.7125526339504</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.669118590481</v>
+        <v>1184.669118590479</v>
       </c>
       <c r="N12" t="n">
-        <v>1720.47842829169</v>
+        <v>1720.478428291689</v>
       </c>
       <c r="O12" t="n">
         <v>2188.419472624213</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.9400487687747</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="C13" t="n">
-        <v>631.0038658408678</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="D13" t="n">
-        <v>631.0038658408678</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="E13" t="n">
-        <v>483.0907722584748</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1974.47230188341</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1974.47230188341</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1974.47230188341</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1719.787813677523</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.370643640562</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.381092742545</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.5885135990144</v>
+        <v>365.7608055583763</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>532.5350811160198</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C16" t="n">
-        <v>532.5350811160198</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036841</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036841</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057737</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2398.598860208607</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.744025863512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1996.142560886452</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1707.067334230651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1452.382846024764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1162.965675987803</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>934.9761250897857</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.1835459462595</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.1035305473705</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504993</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381635</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557704</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>317.61519755786</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473705</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356197</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687974</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138419</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6309,13 +6309,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057246</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2199.770229732631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1910.695003076829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1366.593344833981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782955</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654816</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830885</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851782</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396416</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856868</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C43" t="n">
-        <v>639.95267245778</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>489.8360330454443</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>341.9229394630511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>195.0329919651405</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359457</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159267</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,16 +7804,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.26288739959449</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.4393943863702</v>
+        <v>34.43939438637014</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>134.8758483500308</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76202891582477</v>
+        <v>113.7363514798527</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>117.9015257860034</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>280.107937356928</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>129.8003163722784</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349626</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411873</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>104.7862356002861</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788604</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.49466557218452</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>16.20385512672533</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393013</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5341284403495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409392987</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>66.5105379361511</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>153.7108110197802</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>153.71081101978</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25126,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>85.77246603528434</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.64613085857667</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823189</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.31997266427194</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>943200.4459250402</v>
+        <v>943200.4459250408</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855341</v>
+        <v>389994.8406855342</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303379</v>
+        <v>347979.8910303381</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527532</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="K2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="L2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="M2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="N2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="O2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383394.6348527527</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.6348527529</v>
-      </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657065</v>
+        <v>132804.2190657067</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929383</v>
+        <v>265413.0723929378</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545782</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704294</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>30877.42926417413</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049581</v>
+        <v>65018.34502049566</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273077</v>
+        <v>81897.40371273103</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.57413202347</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>213528.7967230446</v>
+        <v>213528.7967230445</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26427,37 +26427,37 @@
         <v>9841.725762122358</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768923</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9947.144321768939</v>
+      </c>
+      <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="M4" t="n">
-        <v>9947.144321768883</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768914</v>
-      </c>
       <c r="O4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="P4" t="n">
         <v>9947.144321768912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.6503866749</v>
+        <v>72593.65038667491</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-602578.9094406291</v>
+        <v>-602578.9094406292</v>
       </c>
       <c r="C6" t="n">
-        <v>-28931.82548989191</v>
+        <v>-28931.82548989193</v>
       </c>
       <c r="D6" t="n">
-        <v>-106286.4145544702</v>
+        <v>-106286.4145544696</v>
       </c>
       <c r="E6" t="n">
-        <v>-60576.4771537471</v>
+        <v>-60797.60846772294</v>
       </c>
       <c r="F6" t="n">
-        <v>83016.69193664778</v>
+        <v>82981.95401121303</v>
       </c>
       <c r="G6" t="n">
-        <v>272324.9607070768</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="H6" t="n">
-        <v>272324.9607070771</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="I6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816412</v>
       </c>
       <c r="J6" t="n">
-        <v>203325.8062879628</v>
+        <v>203291.0683625269</v>
       </c>
       <c r="K6" t="n">
-        <v>241447.5314429026</v>
+        <v>241412.793517467</v>
       </c>
       <c r="L6" t="n">
-        <v>207306.615686581</v>
+        <v>207271.8777611456</v>
       </c>
       <c r="M6" t="n">
-        <v>190427.556994346</v>
+        <v>190392.8190689102</v>
       </c>
       <c r="N6" t="n">
-        <v>222485.386575053</v>
+        <v>222450.6486496178</v>
       </c>
       <c r="O6" t="n">
-        <v>272324.9607070769</v>
+        <v>272290.2227816411</v>
       </c>
       <c r="P6" t="n">
-        <v>272324.9607070768</v>
+        <v>272290.2227816412</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695744</v>
+        <v>717.3319511695746</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154305</v>
+        <v>383.6877278154308</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.22082394901</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000961</v>
+        <v>103.2769374000962</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479649</v>
+        <v>216.7329409479645</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974108</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267238</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139243</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.897104284608</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>119.9738478139245</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846077</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139243</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.897104284608</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>254.3923607105851</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,13 +27436,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.1621355605638</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.4267638036991</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,16 +27512,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>148.0574169307588</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>2.83401715306729</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>161.4936117919145</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.8546603765451</v>
       </c>
       <c r="F5" t="n">
-        <v>120.9449141535363</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863698</v>
+        <v>99.30025118863695</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>47.22798203371222</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>73.36792529272549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643607</v>
+        <v>1.905236112643578</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>179.7525712150713</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.4951688971458</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>141.7677285910698</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>177.2476095596369</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>146.8343127959631</v>
       </c>
       <c r="T10" t="n">
-        <v>200.6263913899516</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.816298607236514e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365121</v>
+        <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
         <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023588</v>
+        <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791137</v>
+        <v>506.3606591791138</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284025</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974779</v>
+        <v>485.8788493974781</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562764</v>
+        <v>414.6863567562766</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020778</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
         <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189773</v>
+        <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
         <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438659</v>
+        <v>335.014323043866</v>
       </c>
       <c r="M6" t="n">
-        <v>390.945913387418</v>
+        <v>390.9459133874181</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189113</v>
+        <v>401.2930884189114</v>
       </c>
       <c r="O6" t="n">
-        <v>367.104776934867</v>
+        <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190655</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392924</v>
+        <v>95.79765189392927</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989044</v>
+        <v>6.219132670989046</v>
       </c>
       <c r="U6" t="n">
         <v>0.101509238373053</v>
@@ -31434,28 +31434,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572053</v>
+        <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402917</v>
+        <v>91.4539440040292</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773274</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
         <v>182.8373307669598</v>
@@ -31464,19 +31464,19 @@
         <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565105</v>
+        <v>58.16268574565106</v>
       </c>
       <c r="S7" t="n">
         <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060653</v>
+        <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864674</v>
+        <v>0.07055724109864675</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>346.5700931427878</v>
       </c>
       <c r="M12" t="n">
-        <v>440.3108839501635</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,16 +32798,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,13 +33500,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
-        <v>660.0558748011979</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,13 +34790,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>123.5028874333354</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900688</v>
+        <v>63.70847814900694</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573783</v>
+        <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252595</v>
+        <v>219.3104167252596</v>
       </c>
       <c r="M5" t="n">
-        <v>276.014425951841</v>
+        <v>276.0144259518411</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757912</v>
+        <v>255.7806379757913</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010069</v>
+        <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243845</v>
+        <v>89.10649401243856</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959561</v>
+        <v>18.93640691959567</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710205</v>
+        <v>111.3096029710206</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639917</v>
+        <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>383.6877278154305</v>
+        <v>248.8118794653998</v>
       </c>
       <c r="N6" t="n">
-        <v>366.7134052514027</v>
+        <v>383.6877278154308</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904226</v>
+        <v>224.5085324904227</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>278.5610663907387</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793411</v>
+        <v>56.97321748793416</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,22 +35097,22 @@
         <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
         <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491135</v>
+        <v>22.15508137491138</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>451.8731981657875</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>529.7874664804604</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>208.0157133629136</v>
       </c>
       <c r="M12" t="n">
-        <v>298.1768500281452</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655342</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317107</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,16 +36446,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295366</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,13 +37148,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
-        <v>517.9218408791796</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
